--- a/data/spreadsheets/2025/week17.xlsx
+++ b/data/spreadsheets/2025/week17.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29426"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/892d7993c2952521/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="14_{9C1F507B-F82A-4EFB-9D30-1F53B2561BFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="14_{5DBF111E-DC3B-453C-B873-F09CEB982A83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1054" uniqueCount="449">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1056" uniqueCount="451">
   <si>
     <t>WEEK 2</t>
   </si>
@@ -1712,6 +1712,12 @@
   <si>
     <t>paid cash</t>
   </si>
+  <si>
+    <t>venmo sue hold cindy's and nick's money - $42.50 and $5.00</t>
+  </si>
+  <si>
+    <t>venmo'd leslie</t>
+  </si>
 </sst>
 </file>
 
@@ -2967,7 +2973,7 @@
     <xf numFmtId="0" fontId="66" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="61" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="435">
+  <cellXfs count="439">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -3954,19 +3960,7 @@
     <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="56" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="56" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="56" fillId="6" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="56" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -3974,6 +3968,16 @@
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="56" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="62" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="56" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="56" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="80" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -4031,56 +4035,68 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="62" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="56" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="56" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="56" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="56" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="56" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="56" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="56" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="56" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="56" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="56" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="28" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="56" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="91" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="56" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -5649,10 +5665,10 @@
   <dimension ref="A2:AG728"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <pane xSplit="1" ySplit="8" topLeftCell="B634" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="8" topLeftCell="B637" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
-      <selection pane="bottomRight" activeCell="A639" sqref="A639"/>
+      <selection pane="bottomRight" activeCell="AA599" sqref="AA599"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" customHeight="1"/>
@@ -38526,7 +38542,9 @@
         <f t="shared" si="28"/>
         <v>1291</v>
       </c>
-      <c r="Z595" s="140"/>
+      <c r="Z595" s="140" t="s">
+        <v>450</v>
+      </c>
       <c r="AC595" s="22"/>
       <c r="AD595" s="132"/>
       <c r="AE595" s="134"/>
@@ -40692,8 +40710,11 @@
         <f t="shared" si="29"/>
         <v>91</v>
       </c>
-      <c r="Z635" s="134"/>
-      <c r="AA635" s="134"/>
+      <c r="Z635" s="411" t="s">
+        <v>449</v>
+      </c>
+      <c r="AA635" s="411"/>
+      <c r="AB635" s="411"/>
       <c r="AC635" s="22"/>
       <c r="AD635" s="27"/>
     </row>
@@ -40924,7 +40945,7 @@
       <c r="A641" s="42" t="s">
         <v>60</v>
       </c>
-      <c r="B641" s="268"/>
+      <c r="B641" s="272"/>
       <c r="C641" s="268">
         <v>7</v>
       </c>
@@ -40950,32 +40971,34 @@
       <c r="M641" s="268">
         <v>6</v>
       </c>
-      <c r="N641" s="427">
+      <c r="N641" s="277">
         <v>3</v>
       </c>
-      <c r="O641" s="425">
+      <c r="O641" s="272">
         <v>16</v>
       </c>
       <c r="P641" s="277">
         <v>1</v>
       </c>
-      <c r="Q641" s="427">
+      <c r="Q641" s="277">
         <v>9</v>
       </c>
-      <c r="R641" s="434">
+      <c r="R641" s="135">
         <v>9</v>
       </c>
       <c r="S641" s="135">
         <v>14</v>
       </c>
-      <c r="T641" s="417">
+      <c r="T641" s="275">
         <v>9</v>
       </c>
-      <c r="U641" s="389"/>
-      <c r="V641" s="433">
+      <c r="U641" s="421">
+        <v>14</v>
+      </c>
+      <c r="V641" s="277">
         <v>15</v>
       </c>
-      <c r="W641" s="419">
+      <c r="W641" s="315">
         <v>14</v>
       </c>
       <c r="X641" s="315">
@@ -40989,111 +41012,115 @@
         <v>15</v>
       </c>
     </row>
-    <row r="642" spans="1:28" s="22" customFormat="1" ht="15" customHeight="1">
-      <c r="A642" s="20" t="s">
+    <row r="642" spans="1:28" s="416" customFormat="1" ht="15" customHeight="1">
+      <c r="A642" s="235" t="s">
         <v>51</v>
       </c>
-      <c r="B642" s="269"/>
-      <c r="C642" s="269"/>
-      <c r="D642" s="273"/>
-      <c r="E642" s="278"/>
-      <c r="F642" s="273"/>
-      <c r="G642" s="273"/>
-      <c r="H642" s="273"/>
-      <c r="I642" s="273"/>
-      <c r="J642" s="273">
+      <c r="B642" s="432"/>
+      <c r="C642" s="431"/>
+      <c r="D642" s="432"/>
+      <c r="E642" s="433">
+        <v>14</v>
+      </c>
+      <c r="F642" s="432"/>
+      <c r="G642" s="432"/>
+      <c r="H642" s="432"/>
+      <c r="I642" s="432"/>
+      <c r="J642" s="432">
         <v>3</v>
       </c>
-      <c r="K642" s="273">
+      <c r="K642" s="432">
         <v>6</v>
       </c>
-      <c r="L642" s="273"/>
-      <c r="M642" s="269"/>
-      <c r="N642" s="428"/>
-      <c r="O642" s="426"/>
-      <c r="P642" s="278"/>
-      <c r="Q642" s="428"/>
-      <c r="R642" s="431"/>
-      <c r="S642" s="136"/>
-      <c r="T642" s="276"/>
-      <c r="U642" s="388"/>
-      <c r="V642" s="430"/>
-      <c r="W642" s="420"/>
-      <c r="X642" s="316"/>
-      <c r="Y642" s="269"/>
-      <c r="AA642" s="109"/>
-      <c r="AB642" s="184" t="s">
+      <c r="L642" s="432"/>
+      <c r="M642" s="431"/>
+      <c r="N642" s="433"/>
+      <c r="O642" s="432"/>
+      <c r="P642" s="433"/>
+      <c r="Q642" s="433"/>
+      <c r="R642" s="433"/>
+      <c r="S642" s="433"/>
+      <c r="T642" s="435"/>
+      <c r="U642" s="437"/>
+      <c r="V642" s="433"/>
+      <c r="W642" s="434"/>
+      <c r="X642" s="434"/>
+      <c r="Y642" s="431"/>
+      <c r="AA642" s="430"/>
+      <c r="AB642" s="204" t="s">
         <v>386</v>
       </c>
     </row>
-    <row r="643" spans="1:28" s="22" customFormat="1" ht="15" customHeight="1">
-      <c r="A643" s="9" t="s">
+    <row r="643" spans="1:28" s="416" customFormat="1" ht="15" customHeight="1">
+      <c r="A643" s="205" t="s">
         <v>55</v>
       </c>
-      <c r="B643" s="268"/>
-      <c r="C643" s="268">
+      <c r="B643" s="427"/>
+      <c r="C643" s="426">
         <v>11</v>
       </c>
-      <c r="D643" s="272">
+      <c r="D643" s="427">
         <v>9</v>
       </c>
-      <c r="E643" s="277"/>
-      <c r="F643" s="272">
+      <c r="E643" s="428"/>
+      <c r="F643" s="427">
         <v>8</v>
       </c>
-      <c r="G643" s="272">
+      <c r="G643" s="427">
         <v>5</v>
       </c>
-      <c r="H643" s="272"/>
-      <c r="I643" s="272">
+      <c r="H643" s="427"/>
+      <c r="I643" s="427">
         <v>13</v>
       </c>
-      <c r="J643" s="272"/>
-      <c r="K643" s="272">
+      <c r="J643" s="427"/>
+      <c r="K643" s="427">
         <v>16</v>
       </c>
-      <c r="L643" s="272">
+      <c r="L643" s="427">
         <v>8</v>
       </c>
-      <c r="M643" s="268">
+      <c r="M643" s="426">
         <v>9</v>
       </c>
-      <c r="N643" s="427">
+      <c r="N643" s="428">
         <v>10</v>
       </c>
-      <c r="O643" s="425">
+      <c r="O643" s="427">
         <v>15</v>
       </c>
-      <c r="P643" s="277">
+      <c r="P643" s="428">
         <v>15</v>
       </c>
-      <c r="Q643" s="427">
+      <c r="Q643" s="428">
         <v>12</v>
       </c>
-      <c r="R643" s="434">
+      <c r="R643" s="428">
         <v>8</v>
       </c>
-      <c r="S643" s="135">
+      <c r="S643" s="428">
         <v>10</v>
       </c>
-      <c r="T643" s="417">
+      <c r="T643" s="436">
         <v>16</v>
       </c>
-      <c r="U643" s="417"/>
-      <c r="V643" s="433">
+      <c r="U643" s="436">
         <v>13</v>
       </c>
-      <c r="W643" s="419">
+      <c r="V643" s="428">
+        <v>13</v>
+      </c>
+      <c r="W643" s="429">
         <v>9</v>
       </c>
-      <c r="X643" s="315">
+      <c r="X643" s="429">
         <v>3</v>
       </c>
-      <c r="Y643" s="268">
+      <c r="Y643" s="426">
         <v>14</v>
       </c>
-      <c r="AA643" s="109"/>
-      <c r="AB643" s="187" t="s">
+      <c r="AA643" s="430"/>
+      <c r="AB643" s="206" t="s">
         <v>387</v>
       </c>
     </row>
@@ -41101,10 +41128,12 @@
       <c r="A644" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="B644" s="269"/>
+      <c r="B644" s="273"/>
       <c r="C644" s="269"/>
       <c r="D644" s="273"/>
-      <c r="E644" s="278"/>
+      <c r="E644" s="278">
+        <v>3</v>
+      </c>
       <c r="F644" s="273"/>
       <c r="G644" s="273"/>
       <c r="H644" s="273"/>
@@ -41115,16 +41144,16 @@
       <c r="K644" s="273"/>
       <c r="L644" s="273"/>
       <c r="M644" s="269"/>
-      <c r="N644" s="428"/>
-      <c r="O644" s="426"/>
+      <c r="N644" s="278"/>
+      <c r="O644" s="273"/>
       <c r="P644" s="278"/>
-      <c r="Q644" s="428"/>
-      <c r="R644" s="431"/>
+      <c r="Q644" s="278"/>
+      <c r="R644" s="136"/>
       <c r="S644" s="136"/>
       <c r="T644" s="276"/>
-      <c r="U644" s="276"/>
-      <c r="V644" s="430"/>
-      <c r="W644" s="420"/>
+      <c r="U644" s="424"/>
+      <c r="V644" s="278"/>
+      <c r="W644" s="316"/>
       <c r="X644" s="316"/>
       <c r="Y644" s="269"/>
       <c r="AB644" s="187" t="s">
@@ -41135,14 +41164,16 @@
       <c r="A645" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="B645" s="268"/>
+      <c r="B645" s="272"/>
       <c r="C645" s="268">
         <v>16</v>
       </c>
       <c r="D645" s="272">
         <v>10</v>
       </c>
-      <c r="E645" s="277"/>
+      <c r="E645" s="277">
+        <v>7</v>
+      </c>
       <c r="F645" s="272">
         <v>14</v>
       </c>
@@ -41163,32 +41194,34 @@
       <c r="M645" s="268">
         <v>14</v>
       </c>
-      <c r="N645" s="427">
+      <c r="N645" s="277">
         <v>14</v>
       </c>
-      <c r="O645" s="425">
+      <c r="O645" s="272">
         <v>14</v>
       </c>
       <c r="P645" s="277">
         <v>16</v>
       </c>
-      <c r="Q645" s="427">
+      <c r="Q645" s="277">
         <v>15</v>
       </c>
-      <c r="R645" s="434">
+      <c r="R645" s="135">
         <v>14</v>
       </c>
       <c r="S645" s="135">
         <v>15</v>
       </c>
-      <c r="T645" s="417">
+      <c r="T645" s="275">
         <v>12</v>
       </c>
-      <c r="U645" s="389"/>
-      <c r="V645" s="433">
+      <c r="U645" s="421">
+        <v>12</v>
+      </c>
+      <c r="V645" s="277">
         <v>16</v>
       </c>
-      <c r="W645" s="419">
+      <c r="W645" s="315">
         <v>13</v>
       </c>
       <c r="X645" s="315">
@@ -41202,38 +41235,38 @@
         <v>389</v>
       </c>
     </row>
-    <row r="646" spans="1:28" s="22" customFormat="1" ht="15" customHeight="1">
-      <c r="A646" s="7" t="s">
+    <row r="646" spans="1:28" s="416" customFormat="1" ht="15" customHeight="1">
+      <c r="A646" s="207" t="s">
         <v>30</v>
       </c>
-      <c r="B646" s="269"/>
-      <c r="C646" s="269"/>
-      <c r="D646" s="273"/>
-      <c r="E646" s="278"/>
-      <c r="F646" s="273"/>
-      <c r="G646" s="273"/>
-      <c r="H646" s="273"/>
-      <c r="I646" s="273"/>
-      <c r="J646" s="273">
+      <c r="B646" s="432"/>
+      <c r="C646" s="431"/>
+      <c r="D646" s="432"/>
+      <c r="E646" s="433"/>
+      <c r="F646" s="432"/>
+      <c r="G646" s="432"/>
+      <c r="H646" s="432"/>
+      <c r="I646" s="432"/>
+      <c r="J646" s="432">
         <v>4</v>
       </c>
-      <c r="K646" s="273"/>
-      <c r="L646" s="273"/>
-      <c r="M646" s="269"/>
-      <c r="N646" s="428"/>
-      <c r="O646" s="426"/>
-      <c r="P646" s="278"/>
-      <c r="Q646" s="428"/>
-      <c r="R646" s="431"/>
-      <c r="S646" s="136"/>
-      <c r="T646" s="276"/>
-      <c r="U646" s="388"/>
-      <c r="V646" s="430"/>
-      <c r="W646" s="420"/>
-      <c r="X646" s="316"/>
-      <c r="Y646" s="269"/>
-      <c r="AA646" s="27"/>
-      <c r="AB646" s="184" t="s">
+      <c r="K646" s="432"/>
+      <c r="L646" s="432"/>
+      <c r="M646" s="431"/>
+      <c r="N646" s="433"/>
+      <c r="O646" s="432"/>
+      <c r="P646" s="433"/>
+      <c r="Q646" s="433"/>
+      <c r="R646" s="433"/>
+      <c r="S646" s="433"/>
+      <c r="T646" s="435"/>
+      <c r="U646" s="437"/>
+      <c r="V646" s="433"/>
+      <c r="W646" s="434"/>
+      <c r="X646" s="434"/>
+      <c r="Y646" s="431"/>
+      <c r="AA646" s="417"/>
+      <c r="AB646" s="204" t="s">
         <v>390</v>
       </c>
     </row>
@@ -41242,8 +41275,8 @@
         <f>+A640+2</f>
         <v>46018</v>
       </c>
-      <c r="B647" s="390"/>
-      <c r="C647" s="390"/>
+      <c r="B647" s="290"/>
+      <c r="C647" s="388"/>
       <c r="D647" s="290"/>
       <c r="E647" s="299"/>
       <c r="F647" s="299"/>
@@ -41253,19 +41286,19 @@
       <c r="J647" s="290"/>
       <c r="K647" s="290"/>
       <c r="L647" s="290"/>
-      <c r="M647" s="390"/>
-      <c r="N647" s="423"/>
-      <c r="O647" s="423"/>
-      <c r="P647" s="415"/>
-      <c r="Q647" s="415"/>
-      <c r="R647" s="432"/>
+      <c r="M647" s="388"/>
+      <c r="N647" s="290"/>
+      <c r="O647" s="290"/>
+      <c r="P647" s="392"/>
+      <c r="Q647" s="392"/>
+      <c r="R647" s="384"/>
       <c r="S647" s="384"/>
-      <c r="T647" s="429"/>
-      <c r="U647" s="429"/>
-      <c r="V647" s="429"/>
-      <c r="W647" s="429"/>
+      <c r="T647" s="299"/>
+      <c r="U647" s="418"/>
+      <c r="V647" s="299"/>
+      <c r="W647" s="299"/>
       <c r="X647" s="279"/>
-      <c r="Y647" s="390"/>
+      <c r="Y647" s="388"/>
       <c r="AA647"/>
       <c r="AB647" s="187" t="s">
         <v>391</v>
@@ -41275,7 +41308,7 @@
       <c r="A648" s="68" t="s">
         <v>40</v>
       </c>
-      <c r="B648" s="268"/>
+      <c r="B648" s="272"/>
       <c r="C648" s="268">
         <v>13</v>
       </c>
@@ -41301,26 +41334,28 @@
       <c r="M648" s="268">
         <v>12</v>
       </c>
-      <c r="N648" s="427">
+      <c r="N648" s="277">
         <v>13</v>
       </c>
-      <c r="O648" s="425"/>
+      <c r="O648" s="272"/>
       <c r="P648" s="277"/>
-      <c r="Q648" s="427"/>
-      <c r="R648" s="434">
+      <c r="Q648" s="277"/>
+      <c r="R648" s="135">
         <v>10</v>
       </c>
       <c r="S648" s="135">
         <v>12</v>
       </c>
-      <c r="T648" s="417">
+      <c r="T648" s="275">
         <v>13</v>
       </c>
-      <c r="U648" s="417"/>
-      <c r="V648" s="433">
+      <c r="U648" s="423">
+        <v>11</v>
+      </c>
+      <c r="V648" s="277">
         <v>9</v>
       </c>
-      <c r="W648" s="419"/>
+      <c r="W648" s="315"/>
       <c r="X648" s="315">
         <v>13</v>
       </c>
@@ -41336,12 +41371,14 @@
       <c r="A649" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="B649" s="269"/>
+      <c r="B649" s="273"/>
       <c r="C649" s="269"/>
       <c r="D649" s="273">
         <v>7</v>
       </c>
-      <c r="E649" s="278"/>
+      <c r="E649" s="278">
+        <v>4</v>
+      </c>
       <c r="F649" s="273"/>
       <c r="G649" s="273"/>
       <c r="H649" s="273"/>
@@ -41352,22 +41389,22 @@
       <c r="K649" s="273"/>
       <c r="L649" s="273"/>
       <c r="M649" s="269"/>
-      <c r="N649" s="428"/>
-      <c r="O649" s="426">
+      <c r="N649" s="278"/>
+      <c r="O649" s="273">
         <v>13</v>
       </c>
       <c r="P649" s="278">
         <v>4</v>
       </c>
-      <c r="Q649" s="428">
+      <c r="Q649" s="278">
         <v>3</v>
       </c>
-      <c r="R649" s="431"/>
+      <c r="R649" s="136"/>
       <c r="S649" s="136"/>
       <c r="T649" s="276"/>
-      <c r="U649" s="276"/>
-      <c r="V649" s="430"/>
-      <c r="W649" s="420">
+      <c r="U649" s="424"/>
+      <c r="V649" s="278"/>
+      <c r="W649" s="316">
         <v>7</v>
       </c>
       <c r="X649" s="316"/>
@@ -41382,7 +41419,7 @@
       <c r="A650" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="B650" s="268"/>
+      <c r="B650" s="272"/>
       <c r="C650" s="268"/>
       <c r="D650" s="272"/>
       <c r="E650" s="277"/>
@@ -41394,16 +41431,16 @@
       <c r="K650" s="272"/>
       <c r="L650" s="272"/>
       <c r="M650" s="268"/>
-      <c r="N650" s="427"/>
-      <c r="O650" s="425"/>
+      <c r="N650" s="277"/>
+      <c r="O650" s="272"/>
       <c r="P650" s="277"/>
-      <c r="Q650" s="427"/>
-      <c r="R650" s="434"/>
+      <c r="Q650" s="277"/>
+      <c r="R650" s="135"/>
       <c r="S650" s="135"/>
-      <c r="T650" s="417"/>
-      <c r="U650" s="389"/>
-      <c r="V650" s="433"/>
-      <c r="W650" s="419"/>
+      <c r="T650" s="275"/>
+      <c r="U650" s="421"/>
+      <c r="V650" s="277"/>
+      <c r="W650" s="315"/>
       <c r="X650" s="315"/>
       <c r="Y650" s="268"/>
       <c r="Z650" s="146"/>
@@ -41416,14 +41453,16 @@
       <c r="A651" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="B651" s="269"/>
+      <c r="B651" s="273"/>
       <c r="C651" s="269">
         <v>8</v>
       </c>
       <c r="D651" s="273">
         <v>11</v>
       </c>
-      <c r="E651" s="278"/>
+      <c r="E651" s="278">
+        <v>15</v>
+      </c>
       <c r="F651" s="273">
         <v>13</v>
       </c>
@@ -41446,19 +41485,19 @@
       <c r="M651" s="269">
         <v>11</v>
       </c>
-      <c r="N651" s="428">
+      <c r="N651" s="278">
         <v>9</v>
       </c>
-      <c r="O651" s="426">
+      <c r="O651" s="273">
         <v>12</v>
       </c>
       <c r="P651" s="278">
         <v>5</v>
       </c>
-      <c r="Q651" s="428">
+      <c r="Q651" s="278">
         <v>14</v>
       </c>
-      <c r="R651" s="431">
+      <c r="R651" s="136">
         <v>12</v>
       </c>
       <c r="S651" s="136">
@@ -41467,11 +41506,13 @@
       <c r="T651" s="276">
         <v>8</v>
       </c>
-      <c r="U651" s="388"/>
-      <c r="V651" s="430">
+      <c r="U651" s="422">
+        <v>8</v>
+      </c>
+      <c r="V651" s="278">
         <v>7</v>
       </c>
-      <c r="W651" s="420">
+      <c r="W651" s="316">
         <v>16</v>
       </c>
       <c r="X651" s="316">
@@ -41490,10 +41531,12 @@
       <c r="A652" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="B652" s="268"/>
+      <c r="B652" s="272"/>
       <c r="C652" s="268"/>
       <c r="D652" s="272"/>
-      <c r="E652" s="277"/>
+      <c r="E652" s="277">
+        <v>2</v>
+      </c>
       <c r="F652" s="272"/>
       <c r="G652" s="272"/>
       <c r="H652" s="272"/>
@@ -41502,18 +41545,18 @@
       <c r="K652" s="272"/>
       <c r="L652" s="272"/>
       <c r="M652" s="268"/>
-      <c r="N652" s="427"/>
-      <c r="O652" s="425"/>
+      <c r="N652" s="277"/>
+      <c r="O652" s="272"/>
       <c r="P652" s="277">
         <v>6</v>
       </c>
-      <c r="Q652" s="427"/>
-      <c r="R652" s="434"/>
+      <c r="Q652" s="277"/>
+      <c r="R652" s="135"/>
       <c r="S652" s="135"/>
-      <c r="T652" s="417"/>
-      <c r="U652" s="417"/>
-      <c r="V652" s="433"/>
-      <c r="W652" s="419"/>
+      <c r="T652" s="275"/>
+      <c r="U652" s="423"/>
+      <c r="V652" s="277"/>
+      <c r="W652" s="315"/>
       <c r="X652" s="315"/>
       <c r="Y652" s="268"/>
       <c r="Z652" s="109"/>
@@ -41526,7 +41569,7 @@
       <c r="A653" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="B653" s="269"/>
+      <c r="B653" s="273"/>
       <c r="C653" s="269">
         <v>5</v>
       </c>
@@ -41556,17 +41599,17 @@
       <c r="M653" s="269">
         <v>8</v>
       </c>
-      <c r="N653" s="428">
+      <c r="N653" s="278">
         <v>15</v>
       </c>
-      <c r="O653" s="426">
+      <c r="O653" s="273">
         <v>11</v>
       </c>
       <c r="P653" s="278"/>
-      <c r="Q653" s="428">
+      <c r="Q653" s="278">
         <v>6</v>
       </c>
-      <c r="R653" s="431">
+      <c r="R653" s="136">
         <v>6</v>
       </c>
       <c r="S653" s="136">
@@ -41575,11 +41618,13 @@
       <c r="T653" s="276">
         <v>4</v>
       </c>
-      <c r="U653" s="276"/>
-      <c r="V653" s="430">
+      <c r="U653" s="424">
+        <v>10</v>
+      </c>
+      <c r="V653" s="278">
         <v>3</v>
       </c>
-      <c r="W653" s="420">
+      <c r="W653" s="316">
         <v>6</v>
       </c>
       <c r="X653" s="316">
@@ -41601,7 +41646,9 @@
       <c r="B654" s="272"/>
       <c r="C654" s="272"/>
       <c r="D654" s="272"/>
-      <c r="E654" s="272"/>
+      <c r="E654" s="272">
+        <v>6</v>
+      </c>
       <c r="F654" s="272">
         <v>9</v>
       </c>
@@ -41614,24 +41661,24 @@
       <c r="K654" s="272"/>
       <c r="L654" s="272"/>
       <c r="M654" s="272"/>
-      <c r="N654" s="425">
+      <c r="N654" s="272">
         <v>2</v>
       </c>
-      <c r="O654" s="425">
+      <c r="O654" s="272">
         <v>10</v>
       </c>
       <c r="P654" s="277"/>
-      <c r="Q654" s="427">
+      <c r="Q654" s="277">
         <v>4</v>
       </c>
-      <c r="R654" s="434"/>
+      <c r="R654" s="135"/>
       <c r="S654" s="135"/>
-      <c r="T654" s="421"/>
-      <c r="U654" s="421"/>
-      <c r="V654" s="433">
+      <c r="T654" s="394"/>
+      <c r="U654" s="419"/>
+      <c r="V654" s="277">
         <v>4</v>
       </c>
-      <c r="W654" s="421"/>
+      <c r="W654" s="394"/>
       <c r="X654" s="272"/>
       <c r="Y654" s="272">
         <v>3</v>
@@ -41672,24 +41719,26 @@
       <c r="M655" s="273">
         <v>7</v>
       </c>
-      <c r="N655" s="426"/>
-      <c r="O655" s="426"/>
+      <c r="N655" s="273"/>
+      <c r="O655" s="273"/>
       <c r="P655" s="278">
         <v>3</v>
       </c>
-      <c r="Q655" s="428"/>
-      <c r="R655" s="431">
+      <c r="Q655" s="278"/>
+      <c r="R655" s="136">
         <v>4</v>
       </c>
       <c r="S655" s="136">
         <v>4</v>
       </c>
-      <c r="T655" s="422">
+      <c r="T655" s="395">
         <v>3</v>
       </c>
-      <c r="U655" s="422"/>
-      <c r="V655" s="430"/>
-      <c r="W655" s="422">
+      <c r="U655" s="420">
+        <v>2</v>
+      </c>
+      <c r="V655" s="278"/>
+      <c r="W655" s="395">
         <v>5</v>
       </c>
       <c r="X655" s="273">
@@ -41709,7 +41758,9 @@
       <c r="B656" s="272"/>
       <c r="C656" s="272"/>
       <c r="D656" s="272"/>
-      <c r="E656" s="272"/>
+      <c r="E656" s="272">
+        <v>11</v>
+      </c>
       <c r="F656" s="272">
         <v>5</v>
       </c>
@@ -41724,26 +41775,26 @@
         <v>1</v>
       </c>
       <c r="M656" s="272"/>
-      <c r="N656" s="425">
+      <c r="N656" s="272">
         <v>4</v>
       </c>
-      <c r="O656" s="425">
+      <c r="O656" s="272">
         <v>9</v>
       </c>
       <c r="P656" s="277"/>
-      <c r="Q656" s="427">
+      <c r="Q656" s="277">
         <v>5</v>
       </c>
-      <c r="R656" s="434">
+      <c r="R656" s="135">
         <v>3</v>
       </c>
       <c r="S656" s="135"/>
-      <c r="T656" s="421"/>
-      <c r="U656" s="421"/>
-      <c r="V656" s="433">
+      <c r="T656" s="394"/>
+      <c r="U656" s="419"/>
+      <c r="V656" s="277">
         <v>5</v>
       </c>
-      <c r="W656" s="421"/>
+      <c r="W656" s="394"/>
       <c r="X656" s="272"/>
       <c r="Y656" s="272"/>
       <c r="Z656" s="146"/>
@@ -41780,22 +41831,24 @@
       <c r="M657" s="273">
         <v>2</v>
       </c>
-      <c r="N657" s="426"/>
-      <c r="O657" s="426"/>
+      <c r="N657" s="273"/>
+      <c r="O657" s="273"/>
       <c r="P657" s="278">
         <v>2</v>
       </c>
-      <c r="Q657" s="428"/>
-      <c r="R657" s="431"/>
+      <c r="Q657" s="278"/>
+      <c r="R657" s="136"/>
       <c r="S657" s="136">
         <v>3</v>
       </c>
-      <c r="T657" s="422">
+      <c r="T657" s="395">
         <v>2</v>
       </c>
-      <c r="U657" s="422"/>
-      <c r="V657" s="430"/>
-      <c r="W657" s="422">
+      <c r="U657" s="420">
+        <v>3</v>
+      </c>
+      <c r="V657" s="278"/>
+      <c r="W657" s="395">
         <v>4</v>
       </c>
       <c r="X657" s="273">
@@ -41815,10 +41868,10 @@
         <f>+A647+1</f>
         <v>46019</v>
       </c>
-      <c r="B658" s="390"/>
-      <c r="C658" s="390"/>
-      <c r="D658" s="390"/>
-      <c r="E658" s="390"/>
+      <c r="B658" s="290"/>
+      <c r="C658" s="388"/>
+      <c r="D658" s="388"/>
+      <c r="E658" s="388"/>
       <c r="F658" s="290"/>
       <c r="G658" s="290"/>
       <c r="H658" s="290"/>
@@ -41826,19 +41879,19 @@
       <c r="J658" s="290"/>
       <c r="K658" s="290"/>
       <c r="L658" s="290"/>
-      <c r="M658" s="390"/>
-      <c r="N658" s="423"/>
-      <c r="O658" s="423"/>
-      <c r="P658" s="415"/>
-      <c r="Q658" s="415"/>
-      <c r="R658" s="432"/>
+      <c r="M658" s="388"/>
+      <c r="N658" s="290"/>
+      <c r="O658" s="290"/>
+      <c r="P658" s="392"/>
+      <c r="Q658" s="392"/>
+      <c r="R658" s="384"/>
       <c r="S658" s="384"/>
-      <c r="T658" s="429"/>
-      <c r="U658" s="429"/>
-      <c r="V658" s="429"/>
-      <c r="W658" s="429"/>
+      <c r="T658" s="299"/>
+      <c r="U658" s="425"/>
+      <c r="V658" s="299"/>
+      <c r="W658" s="299"/>
       <c r="X658" s="299"/>
-      <c r="Y658" s="390"/>
+      <c r="Y658" s="388"/>
       <c r="Z658" s="109"/>
       <c r="AA658"/>
       <c r="AB658" s="187" t="s">
@@ -41849,14 +41902,16 @@
       <c r="A659" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="B659" s="268"/>
+      <c r="B659" s="272"/>
       <c r="C659" s="268">
         <v>9</v>
       </c>
       <c r="D659" s="272">
         <v>5</v>
       </c>
-      <c r="E659" s="277"/>
+      <c r="E659" s="277">
+        <v>5</v>
+      </c>
       <c r="F659" s="272"/>
       <c r="G659" s="272">
         <v>4</v>
@@ -41875,32 +41930,34 @@
       <c r="M659" s="268">
         <v>10</v>
       </c>
-      <c r="N659" s="427">
+      <c r="N659" s="277">
         <v>7</v>
       </c>
-      <c r="O659" s="425">
+      <c r="O659" s="272">
         <v>8</v>
       </c>
       <c r="P659" s="277">
         <v>12</v>
       </c>
-      <c r="Q659" s="427">
+      <c r="Q659" s="277">
         <v>10</v>
       </c>
-      <c r="R659" s="434">
+      <c r="R659" s="135">
         <v>7</v>
       </c>
       <c r="S659" s="135">
         <v>7</v>
       </c>
-      <c r="T659" s="417">
+      <c r="T659" s="275">
         <v>10</v>
       </c>
-      <c r="U659" s="388"/>
-      <c r="V659" s="433">
+      <c r="U659" s="422">
+        <v>9</v>
+      </c>
+      <c r="V659" s="277">
         <v>6</v>
       </c>
-      <c r="W659" s="419">
+      <c r="W659" s="315">
         <v>8</v>
       </c>
       <c r="X659" s="316">
@@ -41919,7 +41976,7 @@
       <c r="A660" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="B660" s="269"/>
+      <c r="B660" s="273"/>
       <c r="C660" s="269"/>
       <c r="D660" s="273"/>
       <c r="E660" s="278"/>
@@ -41935,16 +41992,16 @@
       <c r="K660" s="273"/>
       <c r="L660" s="273"/>
       <c r="M660" s="269"/>
-      <c r="N660" s="428"/>
-      <c r="O660" s="426"/>
+      <c r="N660" s="278"/>
+      <c r="O660" s="273"/>
       <c r="P660" s="278"/>
-      <c r="Q660" s="428"/>
-      <c r="R660" s="431"/>
+      <c r="Q660" s="278"/>
+      <c r="R660" s="136"/>
       <c r="S660" s="136"/>
       <c r="T660" s="276"/>
-      <c r="U660" s="391"/>
-      <c r="V660" s="430"/>
-      <c r="W660" s="420"/>
+      <c r="U660" s="438"/>
+      <c r="V660" s="278"/>
+      <c r="W660" s="316"/>
       <c r="X660" s="316"/>
       <c r="Y660" s="269"/>
       <c r="Z660" s="109"/>
@@ -41957,12 +42014,14 @@
       <c r="A661" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="B661" s="268"/>
+      <c r="B661" s="272"/>
       <c r="C661" s="268">
         <v>12</v>
       </c>
       <c r="D661" s="272"/>
-      <c r="E661" s="277"/>
+      <c r="E661" s="277">
+        <v>1</v>
+      </c>
       <c r="F661" s="272">
         <v>10</v>
       </c>
@@ -41983,32 +42042,32 @@
       <c r="M661" s="268">
         <v>15</v>
       </c>
-      <c r="N661" s="427">
+      <c r="N661" s="277">
         <v>12</v>
       </c>
-      <c r="O661" s="425">
+      <c r="O661" s="272">
         <v>7</v>
       </c>
       <c r="P661" s="277">
         <v>13</v>
       </c>
-      <c r="Q661" s="427">
+      <c r="Q661" s="277">
         <v>11</v>
       </c>
-      <c r="R661" s="434">
+      <c r="R661" s="135">
         <v>13</v>
       </c>
       <c r="S661" s="135">
         <v>8</v>
       </c>
-      <c r="T661" s="417">
+      <c r="T661" s="275">
         <v>5</v>
       </c>
-      <c r="U661" s="276"/>
-      <c r="V661" s="433">
+      <c r="U661" s="424"/>
+      <c r="V661" s="277">
         <v>12</v>
       </c>
-      <c r="W661" s="419">
+      <c r="W661" s="315">
         <v>12</v>
       </c>
       <c r="X661" s="316">
@@ -42027,7 +42086,7 @@
       <c r="A662" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="B662" s="269"/>
+      <c r="B662" s="273"/>
       <c r="C662" s="269"/>
       <c r="D662" s="273">
         <v>4</v>
@@ -42043,17 +42102,19 @@
       <c r="K662" s="273"/>
       <c r="L662" s="273"/>
       <c r="M662" s="269"/>
-      <c r="N662" s="428"/>
-      <c r="O662" s="426"/>
+      <c r="N662" s="278"/>
+      <c r="O662" s="273"/>
       <c r="P662" s="278"/>
-      <c r="Q662" s="428"/>
-      <c r="R662" s="431"/>
+      <c r="Q662" s="278"/>
+      <c r="R662" s="136"/>
       <c r="S662" s="136"/>
       <c r="T662" s="276"/>
-      <c r="U662" s="392"/>
-      <c r="V662" s="430"/>
-      <c r="W662" s="420"/>
-      <c r="X662" s="393"/>
+      <c r="U662" s="415">
+        <v>7</v>
+      </c>
+      <c r="V662" s="278"/>
+      <c r="W662" s="316"/>
+      <c r="X662" s="389"/>
       <c r="Y662" s="269"/>
       <c r="Z662" s="109"/>
       <c r="AA662"/>
@@ -42062,14 +42123,16 @@
       <c r="A663" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="B663" s="268"/>
+      <c r="B663" s="272"/>
       <c r="C663" s="268">
         <v>10</v>
       </c>
       <c r="D663" s="272">
         <v>3</v>
       </c>
-      <c r="E663" s="277"/>
+      <c r="E663" s="277">
+        <v>13</v>
+      </c>
       <c r="F663" s="272">
         <v>6</v>
       </c>
@@ -42088,30 +42151,32 @@
         <v>6</v>
       </c>
       <c r="M663" s="268"/>
-      <c r="N663" s="427">
+      <c r="N663" s="277">
         <v>6</v>
       </c>
-      <c r="O663" s="425">
+      <c r="O663" s="272">
         <v>6</v>
       </c>
       <c r="P663" s="277">
         <v>11</v>
       </c>
-      <c r="Q663" s="427"/>
-      <c r="R663" s="434">
+      <c r="Q663" s="277"/>
+      <c r="R663" s="135">
         <v>11</v>
       </c>
       <c r="S663" s="135">
         <v>9</v>
       </c>
-      <c r="T663" s="417">
+      <c r="T663" s="275">
         <v>7</v>
       </c>
-      <c r="U663" s="389"/>
-      <c r="V663" s="433">
+      <c r="U663" s="421">
+        <v>1</v>
+      </c>
+      <c r="V663" s="277">
         <v>11</v>
       </c>
-      <c r="W663" s="419">
+      <c r="W663" s="315">
         <v>11</v>
       </c>
       <c r="X663" s="315">
@@ -42127,7 +42192,7 @@
       <c r="A664" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="B664" s="269"/>
+      <c r="B664" s="273"/>
       <c r="C664" s="269"/>
       <c r="D664" s="273"/>
       <c r="E664" s="278"/>
@@ -42143,18 +42208,18 @@
       <c r="M664" s="269">
         <v>3</v>
       </c>
-      <c r="N664" s="428"/>
-      <c r="O664" s="426"/>
+      <c r="N664" s="278"/>
+      <c r="O664" s="273"/>
       <c r="P664" s="278"/>
-      <c r="Q664" s="428">
+      <c r="Q664" s="278">
         <v>7</v>
       </c>
-      <c r="R664" s="431"/>
+      <c r="R664" s="136"/>
       <c r="S664" s="136"/>
       <c r="T664" s="276"/>
-      <c r="U664" s="388"/>
-      <c r="V664" s="430"/>
-      <c r="W664" s="420"/>
+      <c r="U664" s="422"/>
+      <c r="V664" s="278"/>
+      <c r="W664" s="316"/>
       <c r="X664" s="316"/>
       <c r="Y664" s="269"/>
       <c r="Z664" s="134"/>
@@ -42164,14 +42229,16 @@
       <c r="A665" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="B665" s="268"/>
+      <c r="B665" s="272"/>
       <c r="C665" s="268">
         <v>15</v>
       </c>
       <c r="D665" s="272">
         <v>15</v>
       </c>
-      <c r="E665" s="277"/>
+      <c r="E665" s="277">
+        <v>12</v>
+      </c>
       <c r="F665" s="272">
         <v>15</v>
       </c>
@@ -42192,32 +42259,34 @@
       <c r="M665" s="268">
         <v>16</v>
       </c>
-      <c r="N665" s="427">
+      <c r="N665" s="277">
         <v>11</v>
       </c>
-      <c r="O665" s="425">
+      <c r="O665" s="272">
         <v>5</v>
       </c>
       <c r="P665" s="277">
         <v>14</v>
       </c>
-      <c r="Q665" s="427">
+      <c r="Q665" s="277">
         <v>16</v>
       </c>
-      <c r="R665" s="434">
+      <c r="R665" s="135">
         <v>16</v>
       </c>
       <c r="S665" s="135">
         <v>16</v>
       </c>
-      <c r="T665" s="417">
+      <c r="T665" s="275">
         <v>11</v>
       </c>
-      <c r="U665" s="417"/>
-      <c r="V665" s="433">
+      <c r="U665" s="423">
+        <v>16</v>
+      </c>
+      <c r="V665" s="277">
         <v>14</v>
       </c>
-      <c r="W665" s="419">
+      <c r="W665" s="315">
         <v>10</v>
       </c>
       <c r="X665" s="315">
@@ -42233,7 +42302,7 @@
       <c r="A666" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="B666" s="269"/>
+      <c r="B666" s="273"/>
       <c r="C666" s="269"/>
       <c r="D666" s="273"/>
       <c r="E666" s="278"/>
@@ -42247,16 +42316,16 @@
       <c r="K666" s="273"/>
       <c r="L666" s="273"/>
       <c r="M666" s="269"/>
-      <c r="N666" s="428"/>
-      <c r="O666" s="426"/>
+      <c r="N666" s="278"/>
+      <c r="O666" s="273"/>
       <c r="P666" s="278"/>
-      <c r="Q666" s="428"/>
-      <c r="R666" s="431"/>
+      <c r="Q666" s="278"/>
+      <c r="R666" s="136"/>
       <c r="S666" s="136"/>
       <c r="T666" s="276"/>
-      <c r="U666" s="276"/>
-      <c r="V666" s="430"/>
-      <c r="W666" s="420"/>
+      <c r="U666" s="424"/>
+      <c r="V666" s="278"/>
+      <c r="W666" s="316"/>
       <c r="X666" s="316"/>
       <c r="Y666" s="269"/>
       <c r="Z666" s="134"/>
@@ -42266,7 +42335,7 @@
       <c r="A667" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="B667" s="268"/>
+      <c r="B667" s="272"/>
       <c r="C667" s="268">
         <v>6</v>
       </c>
@@ -42290,30 +42359,30 @@
       <c r="M667" s="268">
         <v>5</v>
       </c>
-      <c r="N667" s="427">
+      <c r="N667" s="277">
         <v>1</v>
       </c>
-      <c r="O667" s="425">
+      <c r="O667" s="272">
         <v>4</v>
       </c>
       <c r="P667" s="277">
         <v>10</v>
       </c>
-      <c r="Q667" s="427">
+      <c r="Q667" s="277">
         <v>8</v>
       </c>
-      <c r="R667" s="434">
+      <c r="R667" s="135">
         <v>5</v>
       </c>
       <c r="S667" s="135"/>
-      <c r="T667" s="417">
+      <c r="T667" s="275">
         <v>14</v>
       </c>
-      <c r="U667" s="389"/>
-      <c r="V667" s="433">
+      <c r="U667" s="421"/>
+      <c r="V667" s="277">
         <v>8</v>
       </c>
-      <c r="W667" s="419">
+      <c r="W667" s="315">
         <v>1</v>
       </c>
       <c r="X667" s="315">
@@ -42329,10 +42398,12 @@
       <c r="A668" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="B668" s="269"/>
+      <c r="B668" s="273"/>
       <c r="C668" s="269"/>
       <c r="D668" s="273"/>
-      <c r="E668" s="278"/>
+      <c r="E668" s="278">
+        <v>8</v>
+      </c>
       <c r="F668" s="273"/>
       <c r="G668" s="273"/>
       <c r="H668" s="273"/>
@@ -42347,18 +42418,20 @@
       </c>
       <c r="L668" s="273"/>
       <c r="M668" s="269"/>
-      <c r="N668" s="428"/>
-      <c r="O668" s="426"/>
+      <c r="N668" s="278"/>
+      <c r="O668" s="273"/>
       <c r="P668" s="278"/>
-      <c r="Q668" s="428"/>
-      <c r="R668" s="431"/>
+      <c r="Q668" s="278"/>
+      <c r="R668" s="136"/>
       <c r="S668" s="136">
         <v>2</v>
       </c>
       <c r="T668" s="276"/>
-      <c r="U668" s="388"/>
-      <c r="V668" s="430"/>
-      <c r="W668" s="420"/>
+      <c r="U668" s="422">
+        <v>4</v>
+      </c>
+      <c r="V668" s="278"/>
+      <c r="W668" s="316"/>
       <c r="X668" s="316"/>
       <c r="Y668" s="269"/>
       <c r="Z668" s="134"/>
@@ -42368,7 +42441,7 @@
       <c r="A669" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="B669" s="268"/>
+      <c r="B669" s="272"/>
       <c r="C669" s="268"/>
       <c r="D669" s="272"/>
       <c r="E669" s="277"/>
@@ -42382,20 +42455,20 @@
       <c r="K669" s="272"/>
       <c r="L669" s="272"/>
       <c r="M669" s="268"/>
-      <c r="N669" s="427"/>
-      <c r="O669" s="425">
+      <c r="N669" s="277"/>
+      <c r="O669" s="272">
         <v>3</v>
       </c>
       <c r="P669" s="277">
         <v>9</v>
       </c>
-      <c r="Q669" s="427"/>
-      <c r="R669" s="434"/>
+      <c r="Q669" s="277"/>
+      <c r="R669" s="135"/>
       <c r="S669" s="135"/>
-      <c r="T669" s="417"/>
-      <c r="U669" s="417"/>
-      <c r="V669" s="433"/>
-      <c r="W669" s="419"/>
+      <c r="T669" s="275"/>
+      <c r="U669" s="423"/>
+      <c r="V669" s="277"/>
+      <c r="W669" s="315"/>
       <c r="X669" s="315"/>
       <c r="Y669" s="268"/>
       <c r="Z669" s="134"/>
@@ -42406,14 +42479,16 @@
       <c r="A670" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="B670" s="269"/>
+      <c r="B670" s="273"/>
       <c r="C670" s="269">
         <v>4</v>
       </c>
       <c r="D670" s="273">
         <v>14</v>
       </c>
-      <c r="E670" s="278"/>
+      <c r="E670" s="278">
+        <v>9</v>
+      </c>
       <c r="F670" s="273">
         <v>11</v>
       </c>
@@ -42434,15 +42509,15 @@
       <c r="M670" s="269">
         <v>4</v>
       </c>
-      <c r="N670" s="428">
+      <c r="N670" s="278">
         <v>8</v>
       </c>
-      <c r="O670" s="426"/>
+      <c r="O670" s="273"/>
       <c r="P670" s="278"/>
-      <c r="Q670" s="428">
+      <c r="Q670" s="278">
         <v>2</v>
       </c>
-      <c r="R670" s="431">
+      <c r="R670" s="136">
         <v>1</v>
       </c>
       <c r="S670" s="136">
@@ -42451,11 +42526,13 @@
       <c r="T670" s="276">
         <v>1</v>
       </c>
-      <c r="U670" s="276"/>
-      <c r="V670" s="430">
+      <c r="U670" s="424">
+        <v>5</v>
+      </c>
+      <c r="V670" s="278">
         <v>2</v>
       </c>
-      <c r="W670" s="420">
+      <c r="W670" s="316">
         <v>3</v>
       </c>
       <c r="X670" s="316">
@@ -42471,7 +42548,7 @@
       <c r="A671" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="B671" s="268"/>
+      <c r="B671" s="272"/>
       <c r="C671" s="268"/>
       <c r="D671" s="272"/>
       <c r="E671" s="277"/>
@@ -42483,22 +42560,22 @@
       <c r="K671" s="272"/>
       <c r="L671" s="272"/>
       <c r="M671" s="268"/>
-      <c r="N671" s="427"/>
-      <c r="O671" s="425"/>
+      <c r="N671" s="277"/>
+      <c r="O671" s="272"/>
       <c r="P671" s="277"/>
-      <c r="Q671" s="427">
+      <c r="Q671" s="277">
         <v>1</v>
       </c>
-      <c r="R671" s="434">
+      <c r="R671" s="135">
         <v>2</v>
       </c>
       <c r="S671" s="135"/>
-      <c r="T671" s="417">
+      <c r="T671" s="275">
         <v>15</v>
       </c>
-      <c r="U671" s="389"/>
-      <c r="V671" s="433"/>
-      <c r="W671" s="419"/>
+      <c r="U671" s="421"/>
+      <c r="V671" s="277"/>
+      <c r="W671" s="315"/>
       <c r="X671" s="315"/>
       <c r="Y671" s="268"/>
       <c r="Z671" s="134"/>
@@ -42512,14 +42589,16 @@
       <c r="A672" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="B672" s="269"/>
+      <c r="B672" s="273"/>
       <c r="C672" s="269">
         <v>3</v>
       </c>
       <c r="D672" s="273">
         <v>13</v>
       </c>
-      <c r="E672" s="278"/>
+      <c r="E672" s="278">
+        <v>10</v>
+      </c>
       <c r="F672" s="273">
         <v>7</v>
       </c>
@@ -42542,26 +42621,28 @@
       <c r="M672" s="269">
         <v>1</v>
       </c>
-      <c r="N672" s="428">
+      <c r="N672" s="278">
         <v>5</v>
       </c>
-      <c r="O672" s="426">
+      <c r="O672" s="273">
         <v>2</v>
       </c>
       <c r="P672" s="278">
         <v>8</v>
       </c>
-      <c r="Q672" s="428"/>
-      <c r="R672" s="431"/>
+      <c r="Q672" s="278"/>
+      <c r="R672" s="136"/>
       <c r="S672" s="136">
         <v>5</v>
       </c>
       <c r="T672" s="276"/>
-      <c r="U672" s="388"/>
-      <c r="V672" s="430">
+      <c r="U672" s="422">
+        <v>6</v>
+      </c>
+      <c r="V672" s="278">
         <v>1</v>
       </c>
-      <c r="W672" s="420">
+      <c r="W672" s="316">
         <v>2</v>
       </c>
       <c r="X672" s="316">
@@ -42583,10 +42664,10 @@
         <f>+A658+1</f>
         <v>46020</v>
       </c>
-      <c r="B673" s="390"/>
-      <c r="C673" s="390"/>
-      <c r="D673" s="390"/>
-      <c r="E673" s="390"/>
+      <c r="B673" s="290"/>
+      <c r="C673" s="388"/>
+      <c r="D673" s="388"/>
+      <c r="E673" s="388"/>
       <c r="F673" s="290"/>
       <c r="G673" s="290"/>
       <c r="H673" s="290"/>
@@ -42594,19 +42675,19 @@
       <c r="J673" s="290"/>
       <c r="K673" s="290"/>
       <c r="L673" s="290"/>
-      <c r="M673" s="390"/>
-      <c r="N673" s="423"/>
-      <c r="O673" s="423"/>
-      <c r="P673" s="415"/>
-      <c r="Q673" s="415"/>
-      <c r="R673" s="432"/>
+      <c r="M673" s="388"/>
+      <c r="N673" s="290"/>
+      <c r="O673" s="290"/>
+      <c r="P673" s="392"/>
+      <c r="Q673" s="392"/>
+      <c r="R673" s="384"/>
       <c r="S673" s="384"/>
-      <c r="T673" s="429"/>
-      <c r="U673" s="429"/>
-      <c r="V673" s="429"/>
-      <c r="W673" s="429"/>
+      <c r="T673" s="299"/>
+      <c r="U673" s="425"/>
+      <c r="V673" s="299"/>
+      <c r="W673" s="299"/>
       <c r="X673" s="299"/>
-      <c r="Y673" s="390"/>
+      <c r="Y673" s="388"/>
       <c r="Z673" s="134"/>
       <c r="AA673" s="134"/>
       <c r="AD673"/>
@@ -42618,14 +42699,16 @@
       <c r="A674" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="B674" s="269"/>
+      <c r="B674" s="273"/>
       <c r="C674" s="269">
         <v>14</v>
       </c>
       <c r="D674" s="273">
         <v>16</v>
       </c>
-      <c r="E674" s="278"/>
+      <c r="E674" s="278">
+        <v>16</v>
+      </c>
       <c r="F674" s="273">
         <v>16</v>
       </c>
@@ -42646,35 +42729,37 @@
       <c r="M674" s="269">
         <v>13</v>
       </c>
-      <c r="N674" s="428">
+      <c r="N674" s="278">
         <v>16</v>
       </c>
-      <c r="O674" s="426">
+      <c r="O674" s="273">
         <v>1</v>
       </c>
       <c r="P674" s="278">
         <v>7</v>
       </c>
-      <c r="Q674" s="428">
+      <c r="Q674" s="278">
         <v>13</v>
       </c>
-      <c r="R674" s="431">
+      <c r="R674" s="136">
         <v>15</v>
       </c>
-      <c r="S674" s="416">
+      <c r="S674" s="393">
         <v>13</v>
       </c>
       <c r="T674" s="276">
         <v>6</v>
       </c>
-      <c r="U674" s="418"/>
-      <c r="V674" s="394">
+      <c r="U674" s="423">
+        <v>15</v>
+      </c>
+      <c r="V674" s="390">
         <v>10</v>
       </c>
-      <c r="W674" s="395">
+      <c r="W674" s="391">
         <v>15</v>
       </c>
-      <c r="X674" s="395">
+      <c r="X674" s="391">
         <v>8</v>
       </c>
       <c r="Y674" s="269">
@@ -42691,7 +42776,7 @@
       <c r="A675" s="51" t="s">
         <v>54</v>
       </c>
-      <c r="B675" s="268"/>
+      <c r="B675" s="272"/>
       <c r="C675" s="268"/>
       <c r="D675" s="272"/>
       <c r="E675" s="277"/>
@@ -42705,16 +42790,16 @@
       <c r="K675" s="272"/>
       <c r="L675" s="272"/>
       <c r="M675" s="268"/>
-      <c r="N675" s="427"/>
-      <c r="O675" s="425"/>
+      <c r="N675" s="277"/>
+      <c r="O675" s="272"/>
       <c r="P675" s="277"/>
-      <c r="Q675" s="427"/>
-      <c r="R675" s="434"/>
+      <c r="Q675" s="277"/>
+      <c r="R675" s="135"/>
       <c r="S675" s="144"/>
-      <c r="T675" s="417"/>
-      <c r="U675" s="389"/>
-      <c r="V675" s="433"/>
-      <c r="W675" s="417"/>
+      <c r="T675" s="275"/>
+      <c r="U675" s="421"/>
+      <c r="V675" s="277"/>
+      <c r="W675" s="275"/>
       <c r="X675" s="275"/>
       <c r="Y675" s="268"/>
       <c r="Z675" s="134"/>
@@ -42772,7 +42857,7 @@
       </c>
       <c r="E677" s="11">
         <f t="shared" si="31"/>
-        <v>0</v>
+        <v>136</v>
       </c>
       <c r="F677" s="11">
         <f t="shared" si="31"/>
@@ -42836,7 +42921,7 @@
       </c>
       <c r="U677" s="11">
         <f t="shared" si="31"/>
-        <v>0</v>
+        <v>136</v>
       </c>
       <c r="V677" s="11">
         <f t="shared" si="31"/>
@@ -44138,18 +44223,18 @@
       <c r="K716" s="11"/>
       <c r="L716" s="11"/>
       <c r="M716" s="16"/>
-      <c r="N716" s="424"/>
-      <c r="O716" s="424"/>
-      <c r="P716" s="424"/>
-      <c r="Q716" s="424"/>
-      <c r="R716" s="424"/>
-      <c r="S716" s="424"/>
-      <c r="T716" s="424"/>
-      <c r="U716" s="424"/>
-      <c r="V716" s="424"/>
-      <c r="W716" s="424"/>
-      <c r="X716" s="424"/>
-      <c r="Y716" s="424"/>
+      <c r="N716" s="11"/>
+      <c r="O716" s="11"/>
+      <c r="P716" s="11"/>
+      <c r="Q716" s="11"/>
+      <c r="R716" s="11"/>
+      <c r="S716" s="11"/>
+      <c r="T716" s="11"/>
+      <c r="U716" s="11"/>
+      <c r="V716" s="11"/>
+      <c r="W716" s="11"/>
+      <c r="X716" s="11"/>
+      <c r="Y716" s="11"/>
       <c r="Z716" s="177"/>
       <c r="AA716" s="22"/>
       <c r="AB716" s="22"/>
@@ -44169,18 +44254,18 @@
       <c r="K717" s="11"/>
       <c r="L717" s="11"/>
       <c r="M717" s="26"/>
-      <c r="N717" s="424"/>
-      <c r="O717" s="424"/>
-      <c r="P717" s="424"/>
-      <c r="Q717" s="424"/>
-      <c r="R717" s="424"/>
-      <c r="S717" s="424"/>
-      <c r="T717" s="424"/>
-      <c r="U717" s="424"/>
-      <c r="V717" s="424"/>
-      <c r="W717" s="424"/>
-      <c r="X717" s="424"/>
-      <c r="Y717" s="424"/>
+      <c r="N717" s="11"/>
+      <c r="O717" s="11"/>
+      <c r="P717" s="11"/>
+      <c r="Q717" s="11"/>
+      <c r="R717" s="11"/>
+      <c r="S717" s="11"/>
+      <c r="T717" s="11"/>
+      <c r="U717" s="11"/>
+      <c r="V717" s="11"/>
+      <c r="W717" s="11"/>
+      <c r="X717" s="11"/>
+      <c r="Y717" s="11"/>
       <c r="Z717" s="26"/>
       <c r="AA717" s="22"/>
       <c r="AB717" s="22"/>
@@ -44202,18 +44287,18 @@
       <c r="K718" s="11"/>
       <c r="L718" s="11"/>
       <c r="M718" s="102"/>
-      <c r="N718" s="424"/>
-      <c r="O718" s="424"/>
-      <c r="P718" s="424"/>
-      <c r="Q718" s="424"/>
-      <c r="R718" s="424"/>
-      <c r="S718" s="424"/>
-      <c r="T718" s="424"/>
-      <c r="U718" s="424"/>
-      <c r="V718" s="424"/>
-      <c r="W718" s="424"/>
-      <c r="X718" s="424"/>
-      <c r="Y718" s="424"/>
+      <c r="N718" s="11"/>
+      <c r="O718" s="11"/>
+      <c r="P718" s="11"/>
+      <c r="Q718" s="11"/>
+      <c r="R718" s="11"/>
+      <c r="S718" s="11"/>
+      <c r="T718" s="11"/>
+      <c r="U718" s="11"/>
+      <c r="V718" s="11"/>
+      <c r="W718" s="11"/>
+      <c r="X718" s="11"/>
+      <c r="Y718" s="11"/>
       <c r="Z718" s="26"/>
       <c r="AA718" s="22"/>
       <c r="AB718" s="22"/>
@@ -44232,18 +44317,18 @@
       <c r="K719" s="11"/>
       <c r="L719" s="11"/>
       <c r="M719" s="183"/>
-      <c r="N719" s="424"/>
-      <c r="O719" s="424"/>
-      <c r="P719" s="424"/>
-      <c r="Q719" s="424"/>
-      <c r="R719" s="424"/>
-      <c r="S719" s="424"/>
-      <c r="T719" s="424"/>
-      <c r="U719" s="424"/>
-      <c r="V719" s="424"/>
-      <c r="W719" s="424"/>
-      <c r="X719" s="424"/>
-      <c r="Y719" s="424"/>
+      <c r="N719" s="11"/>
+      <c r="O719" s="11"/>
+      <c r="P719" s="11"/>
+      <c r="Q719" s="11"/>
+      <c r="R719" s="11"/>
+      <c r="S719" s="11"/>
+      <c r="T719" s="11"/>
+      <c r="U719" s="11"/>
+      <c r="V719" s="11"/>
+      <c r="W719" s="11"/>
+      <c r="X719" s="11"/>
+      <c r="Y719" s="11"/>
       <c r="Z719" s="22"/>
       <c r="AA719" s="22"/>
       <c r="AB719" s="22"/>
@@ -44261,18 +44346,18 @@
       <c r="J720" s="11"/>
       <c r="K720" s="11"/>
       <c r="L720" s="11"/>
-      <c r="N720" s="424"/>
-      <c r="O720" s="424"/>
-      <c r="P720" s="424"/>
-      <c r="Q720" s="424"/>
-      <c r="R720" s="424"/>
-      <c r="S720" s="424"/>
-      <c r="T720" s="424"/>
-      <c r="U720" s="424"/>
-      <c r="V720" s="424"/>
-      <c r="W720" s="424"/>
-      <c r="X720" s="424"/>
-      <c r="Y720" s="424"/>
+      <c r="N720" s="11"/>
+      <c r="O720" s="11"/>
+      <c r="P720" s="11"/>
+      <c r="Q720" s="11"/>
+      <c r="R720" s="11"/>
+      <c r="S720" s="11"/>
+      <c r="T720" s="11"/>
+      <c r="U720" s="11"/>
+      <c r="V720" s="11"/>
+      <c r="W720" s="11"/>
+      <c r="X720" s="11"/>
+      <c r="Y720" s="11"/>
       <c r="AB720" s="22"/>
     </row>
     <row r="721" spans="1:29" ht="15" customHeight="1">
@@ -44311,7 +44396,8 @@
       <c r="E728" s="104"/>
     </row>
   </sheetData>
-  <mergeCells count="13">
+  <mergeCells count="14">
+    <mergeCell ref="Z635:AB635"/>
     <mergeCell ref="Z396:Z397"/>
     <mergeCell ref="B405:B406"/>
     <mergeCell ref="A2:S2"/>
